--- a/data/trans_orig/P78C6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C6_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B52B95-C82E-48D4-9876-DD662DF05C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC2F01B5-4198-4455-B2DB-22145B425FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9FD3E7A-F627-46A5-AEBF-B55BAF59A279}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0F321121-B0FA-43CF-8A5F-1684524F24E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="157">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de recibos de agua, gas, calefacción, electricidad, comunidad en 2023 (Tasa respuesta: 8,46%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,379 +80,430 @@
     <t>100%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>82,85%</t>
   </si>
   <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>17,15%</t>
   </si>
   <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -867,8 +918,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430E8370-2788-42D9-ABAB-280CE8FA7F70}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77149F7-C919-4210-8A0A-75EBB206F468}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -988,7 +1039,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>29668</v>
+        <v>28602</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1003,7 +1054,7 @@
         <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>33976</v>
+        <v>26979</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1018,7 +1069,7 @@
         <v>35</v>
       </c>
       <c r="N4" s="7">
-        <v>63644</v>
+        <v>55581</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1054,7 +1105,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>17750</v>
+        <v>18477</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1069,7 +1120,7 @@
         <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>17749</v>
+        <v>18477</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1090,7 +1141,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>29668</v>
+        <v>28602</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1105,7 +1156,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>51726</v>
+        <v>45456</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1120,7 +1171,7 @@
         <v>44</v>
       </c>
       <c r="N6" s="7">
-        <v>81393</v>
+        <v>74058</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1143,7 +1194,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>22566</v>
+        <v>19569</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>31</v>
@@ -1158,7 +1209,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>38575</v>
+        <v>33410</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -1173,7 +1224,7 @@
         <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>61141</v>
+        <v>52980</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>37</v>
@@ -1194,7 +1245,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>8925</v>
+        <v>8475</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1209,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>7545</v>
+        <v>6632</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -1224,7 +1275,7 @@
         <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>16470</v>
+        <v>15107</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>46</v>
@@ -1245,7 +1296,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="7">
-        <v>31491</v>
+        <v>28044</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1260,7 +1311,7 @@
         <v>40</v>
       </c>
       <c r="I9" s="7">
-        <v>46120</v>
+        <v>40042</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1275,7 +1326,7 @@
         <v>63</v>
       </c>
       <c r="N9" s="7">
-        <v>77611</v>
+        <v>68087</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1298,7 +1349,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>28135</v>
+        <v>25726</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -1313,7 +1364,7 @@
         <v>45</v>
       </c>
       <c r="I10" s="7">
-        <v>32803</v>
+        <v>28612</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -1328,7 +1379,7 @@
         <v>72</v>
       </c>
       <c r="N10" s="7">
-        <v>60938</v>
+        <v>54338</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1349,7 +1400,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>6079</v>
+        <v>5556</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -1364,7 +1415,7 @@
         <v>14</v>
       </c>
       <c r="I11" s="7">
-        <v>10890</v>
+        <v>10177</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -1379,7 +1430,7 @@
         <v>22</v>
       </c>
       <c r="N11" s="7">
-        <v>16969</v>
+        <v>15733</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>65</v>
@@ -1400,7 +1451,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>34214</v>
+        <v>31282</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1415,7 +1466,7 @@
         <v>59</v>
       </c>
       <c r="I12" s="7">
-        <v>43693</v>
+        <v>38789</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1430,7 +1481,7 @@
         <v>94</v>
       </c>
       <c r="N12" s="7">
-        <v>77907</v>
+        <v>70071</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1453,28 +1504,28 @@
         <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>49488</v>
+        <v>43005</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
       </c>
       <c r="I13" s="7">
-        <v>53253</v>
+        <v>46425</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>73</v>
@@ -1483,7 +1534,7 @@
         <v>119</v>
       </c>
       <c r="N13" s="7">
-        <v>102741</v>
+        <v>89431</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -1504,7 +1555,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>5910</v>
+        <v>5443</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1513,28 +1564,28 @@
         <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>7488</v>
+        <v>7021</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
       </c>
       <c r="N14" s="7">
-        <v>13398</v>
+        <v>12464</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -1555,7 +1606,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="7">
-        <v>55398</v>
+        <v>48448</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1570,7 +1621,7 @@
         <v>87</v>
       </c>
       <c r="I15" s="7">
-        <v>60741</v>
+        <v>53446</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1585,7 +1636,7 @@
         <v>138</v>
       </c>
       <c r="N15" s="7">
-        <v>116139</v>
+        <v>101895</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1608,7 +1659,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>53548</v>
+        <v>46828</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>86</v>
@@ -1623,7 +1674,7 @@
         <v>90</v>
       </c>
       <c r="I16" s="7">
-        <v>60194</v>
+        <v>52676</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>89</v>
@@ -1638,7 +1689,7 @@
         <v>147</v>
       </c>
       <c r="N16" s="7">
-        <v>113742</v>
+        <v>99504</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>92</v>
@@ -1659,7 +1710,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>6909</v>
+        <v>6542</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>95</v>
@@ -1674,7 +1725,7 @@
         <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>6377</v>
+        <v>5803</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>98</v>
@@ -1689,7 +1740,7 @@
         <v>20</v>
       </c>
       <c r="N17" s="7">
-        <v>13286</v>
+        <v>12345</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>101</v>
@@ -1710,7 +1761,7 @@
         <v>66</v>
       </c>
       <c r="D18" s="7">
-        <v>60457</v>
+        <v>53370</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1725,7 +1776,7 @@
         <v>101</v>
       </c>
       <c r="I18" s="7">
-        <v>66571</v>
+        <v>58479</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1740,7 +1791,7 @@
         <v>167</v>
       </c>
       <c r="N18" s="7">
-        <v>127028</v>
+        <v>111849</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1760,10 +1811,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7">
-        <v>64550</v>
+        <v>30869</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>105</v>
@@ -1775,10 +1826,10 @@
         <v>107</v>
       </c>
       <c r="H19" s="7">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="I19" s="7">
-        <v>80715</v>
+        <v>33823</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>108</v>
@@ -1790,10 +1841,10 @@
         <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="N19" s="7">
-        <v>145265</v>
+        <v>64693</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>111</v>
@@ -1811,10 +1862,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>4600</v>
+        <v>3314</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>114</v>
@@ -1826,10 +1877,10 @@
         <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>4210</v>
+        <v>2870</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>117</v>
@@ -1841,10 +1892,10 @@
         <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>8810</v>
+        <v>6184</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>120</v>
@@ -1862,10 +1913,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="D21" s="7">
-        <v>69150</v>
+        <v>34183</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -1877,10 +1928,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="I21" s="7">
-        <v>84925</v>
+        <v>36693</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -1892,10 +1943,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="N21" s="7">
-        <v>154075</v>
+        <v>70877</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -1909,55 +1960,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7">
-        <v>247954</v>
+        <v>25409</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>393</v>
+        <v>66</v>
       </c>
       <c r="I22" s="7">
-        <v>299516</v>
+        <v>35222</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>643</v>
+        <v>106</v>
       </c>
       <c r="N22" s="7">
-        <v>547470</v>
+        <v>60631</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,49 +2017,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>32424</v>
+        <v>941</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>133</v>
       </c>
       <c r="H23" s="7">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>54260</v>
+        <v>918</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>86684</v>
+        <v>1859</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,63 +2068,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>41</v>
+      </c>
+      <c r="D24" s="7">
+        <v>26350</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>69</v>
+      </c>
+      <c r="I24" s="7">
+        <v>36140</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>110</v>
+      </c>
+      <c r="N24" s="7">
+        <v>62490</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>250</v>
+      </c>
+      <c r="D25" s="7">
+        <v>220010</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="7">
+        <v>393</v>
+      </c>
+      <c r="I25" s="7">
+        <v>257146</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M25" s="7">
+        <v>643</v>
+      </c>
+      <c r="N25" s="7">
+        <v>477156</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>36</v>
+      </c>
+      <c r="D26" s="7">
+        <v>30271</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="7">
+        <v>61</v>
+      </c>
+      <c r="I26" s="7">
+        <v>51899</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="7">
+        <v>97</v>
+      </c>
+      <c r="N26" s="7">
+        <v>82170</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>286</v>
       </c>
-      <c r="D24" s="7">
-        <v>280378</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>250281</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>454</v>
       </c>
-      <c r="I24" s="7">
-        <v>353776</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>309045</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>740</v>
       </c>
-      <c r="N24" s="7">
-        <v>634154</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>139</v>
+      <c r="N27" s="7">
+        <v>559326</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
